--- a/data/trans_camb/Hacinamiento_R-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/Hacinamiento_R-Habitat-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-14,61; 0,0</t>
+          <t>-17,63; 0,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-7,07; 14,03</t>
+          <t>-6,99; 14,48</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-17,69; 0,0</t>
+          <t>-14,67; 0,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-7,76; 27,86</t>
+          <t>-7,16; 27,07</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-5,0; 36,84</t>
+          <t>-4,76; 37,65</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-21,64; 0,0</t>
+          <t>-21,46; 0,0</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-5,95; 11,74</t>
+          <t>-5,82; 12,54</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-4,04; 18,59</t>
+          <t>-3,89; 19,01</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-12,97; 0,0</t>
+          <t>-12,38; 0,0</t>
         </is>
       </c>
     </row>
@@ -838,7 +838,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,95; 8,23</t>
+          <t>-4,81; 8,28</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,55; 9,75</t>
+          <t>-4,21; 9,52</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-7,44; 3,21</t>
+          <t>-8,01; 2,94</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,44; 10,25</t>
+          <t>-2,48; 10,63</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-1,2; 11,67</t>
+          <t>-1,32; 11,53</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-4,49; 5,42</t>
+          <t>-4,85; 5,16</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-1,56; 6,94</t>
+          <t>-1,89; 7,35</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-0,91; 8,6</t>
+          <t>-0,66; 8,56</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-4,74; 3,01</t>
+          <t>-4,5; 3,25</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-48,85; 190,32</t>
+          <t>-50,0; 183,14</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-44,71; 228,89</t>
+          <t>-48,9; 201,9</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-71,32; 83,36</t>
+          <t>-73,99; 74,43</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-44,31; 538,05</t>
+          <t>-44,56; 427,19</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-26,5; 600,25</t>
+          <t>-25,18; 567,77</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-66,92; 276,19</t>
+          <t>-70,74; 252,61</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-23,77; 162,53</t>
+          <t>-26,52; 186,69</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-16,25; 182,14</t>
+          <t>-13,9; 197,55</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-58,26; 74,45</t>
+          <t>-56,88; 88,82</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-5,52; 4,66</t>
+          <t>-5,07; 4,95</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-7,42; 2,04</t>
+          <t>-7,33; 1,9</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-5,97; 4,16</t>
+          <t>-5,81; 4,2</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,29; 10,55</t>
+          <t>-0,89; 10,89</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-4,26; 5,3</t>
+          <t>-3,83; 6,1</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-5,37; 3,26</t>
+          <t>-5,86; 2,9</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-1,77; 5,64</t>
+          <t>-1,91; 5,66</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-4,33; 2,14</t>
+          <t>-4,39; 2,36</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-4,21; 2,6</t>
+          <t>-4,42; 2,39</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-51,55; 85,54</t>
+          <t>-49,05; 94,58</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-65,84; 45,2</t>
+          <t>-66,88; 37,09</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-53,32; 85,35</t>
+          <t>-50,6; 77,0</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-17,77; 237,55</t>
+          <t>-11,97; 248,5</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-44,08; 130,67</t>
+          <t>-43,27; 152,46</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-57,27; 87,58</t>
+          <t>-61,67; 70,05</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-19,95; 97,73</t>
+          <t>-23,53; 96,38</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-46,46; 40,45</t>
+          <t>-46,52; 41,48</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-44,76; 48,02</t>
+          <t>-44,87; 43,67</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>1,32; 13,72</t>
+          <t>1,18; 13,82</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-4,02; 6,48</t>
+          <t>-3,73; 6,46</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,13; 9,61</t>
+          <t>-1,22; 8,98</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,76; 15,17</t>
+          <t>0,84; 14,13</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-2,54; 9,63</t>
+          <t>-2,11; 9,97</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-6,64; 3,63</t>
+          <t>-6,22; 3,87</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>2,88; 11,98</t>
+          <t>2,73; 12,16</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-1,77; 6,19</t>
+          <t>-1,19; 6,16</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-1,91; 5,01</t>
+          <t>-1,88; 5,45</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>0,45; 366,29</t>
+          <t>3,58; 383,38</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-48,1; 209,66</t>
+          <t>-47,77; 182,22</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-17,97; 289,86</t>
+          <t>-18,6; 280,68</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>4,14; 320,75</t>
+          <t>3,37; 312,93</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-27,32; 218,14</t>
+          <t>-25,58; 210,97</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-62,62; 84,88</t>
+          <t>-60,26; 97,47</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>31,37; 261,41</t>
+          <t>29,27; 250,01</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-22,73; 135,24</t>
+          <t>-15,55; 132,0</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-23,76; 101,55</t>
+          <t>-21,46; 123,3</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-7,59; 3,99</t>
+          <t>-7,76; 3,48</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-9,56; 0,84</t>
+          <t>-10,04; 0,72</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-7,44; 3,76</t>
+          <t>-6,96; 3,94</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-5,73; 4,52</t>
+          <t>-5,05; 4,14</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-5,31; 4,08</t>
+          <t>-5,19; 4,45</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-4,17; 5,29</t>
+          <t>-4,24; 5,49</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-4,72; 2,46</t>
+          <t>-4,77; 2,03</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-6,06; 0,79</t>
+          <t>-5,88; 0,91</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-4,41; 3,12</t>
+          <t>-3,85; 2,9</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-58,13; 49,87</t>
+          <t>-57,73; 51,66</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-70,85; 17,12</t>
+          <t>-72,28; 11,88</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-53,67; 50,9</t>
+          <t>-54,39; 57,4</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-58,75; 87,78</t>
+          <t>-55,94; 83,48</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-54,99; 83,71</t>
+          <t>-53,54; 91,73</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-46,48; 104,51</t>
+          <t>-43,92; 115,25</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-44,77; 36,8</t>
+          <t>-45,59; 30,83</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-55,49; 13,02</t>
+          <t>-55,3; 14,45</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-40,06; 46,57</t>
+          <t>-36,41; 40,26</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-1,63; 4,11</t>
+          <t>-1,47; 3,88</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-3,85; 1,16</t>
+          <t>-3,97; 1,3</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-2,59; 2,45</t>
+          <t>-2,57; 2,7</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>0,67; 6,52</t>
+          <t>0,55; 6,48</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-0,9; 4,43</t>
+          <t>-0,96; 4,67</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-2,77; 1,94</t>
+          <t>-3,12; 1,61</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>0,17; 4,44</t>
+          <t>0,43; 4,64</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-1,68; 2,15</t>
+          <t>-1,66; 2,16</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-2,2; 1,53</t>
+          <t>-1,85; 1,79</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-17,59; 64,22</t>
+          <t>-16,62; 57,05</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-41,18; 17,95</t>
+          <t>-41,95; 19,16</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-27,52; 37,96</t>
+          <t>-27,6; 40,9</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>7,02; 118,61</t>
+          <t>6,4; 122,31</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-10,75; 87,23</t>
+          <t>-14,2; 84,25</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-34,76; 38,28</t>
+          <t>-38,93; 30,51</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>2,4; 68,93</t>
+          <t>4,36; 73,89</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-19,69; 35,41</t>
+          <t>-20,09; 33,63</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-26,64; 24,08</t>
+          <t>-22,81; 28,22</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/Hacinamiento_R-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/Hacinamiento_R-Habitat-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -537,14 +537,14 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="G1" s="3" t="n"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-3,51</t>
+          <t>4,04</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,93</t>
+          <t>5,9</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-3,51</t>
+          <t>-0,07</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>6,38</t>
+          <t>1,32</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>10,71</t>
+          <t>2,19</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-4,24</t>
+          <t>-1,92</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>1,46</t>
+          <t>2,59</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>5,42</t>
+          <t>3,92</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-3,83</t>
+          <t>-1,05</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-17,63; 0,0</t>
+          <t>-1,51; 10,3</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-6,99; 14,48</t>
+          <t>-0,49; 13,36</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-14,67; 0,0</t>
+          <t>-5,17; 4,71</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-7,16; 27,07</t>
+          <t>-4,25; 6,94</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-4,76; 37,65</t>
+          <t>-2,56; 8,81</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-21,46; 0,0</t>
+          <t>-6,59; 2,81</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-5,82; 12,54</t>
+          <t>-1,14; 6,69</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-3,89; 19,01</t>
+          <t>-0,24; 8,59</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-12,38; 0,0</t>
+          <t>-4,4; 2,2</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>86,68%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>26,61%</t>
+          <t>126,65%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>-1,48%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>150,44%</t>
+          <t>20,54%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>252,71%</t>
+          <t>34,13%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>-30,02%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>38,18%</t>
+          <t>46,4%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>141,37%</t>
+          <t>70,19%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>-18,85%</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-31,26; 427,6</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,63; 552,41</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-75,3; 252,33</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-49,58; 160,18</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-36,76; 211,17</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-71,2; 78,95</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,46; 179,19</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,18; 223,12</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-60,53; 61,07</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,88</t>
+          <t>4,65</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>2,3</t>
+          <t>0,95</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-1,97</t>
+          <t>-0,98</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>3,57</t>
+          <t>-0,16</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>4,94</t>
+          <t>-2,58</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,36</t>
+          <t>-0,29</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>2,7</t>
+          <t>2,05</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>3,56</t>
+          <t>-0,93</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-0,86</t>
+          <t>-0,52</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,81; 8,28</t>
+          <t>-0,55; 10,74</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,21; 9,52</t>
+          <t>-3,45; 5,98</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-8,01; 2,94</t>
+          <t>-5,59; 3,2</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,48; 10,63</t>
+          <t>-5,53; 4,72</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-1,32; 11,53</t>
+          <t>-7,52; 1,76</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-4,85; 5,16</t>
+          <t>-5,58; 4,61</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-1,89; 7,35</t>
+          <t>-1,73; 5,62</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-0,66; 8,56</t>
+          <t>-4,42; 2,31</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-4,5; 3,25</t>
+          <t>-3,99; 2,48</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>26,34%</t>
+          <t>69,1%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>32,3%</t>
+          <t>14,12%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-27,63%</t>
+          <t>-14,53%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>75,06%</t>
+          <t>-2,02%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>103,88%</t>
+          <t>-31,89%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>7,68%</t>
+          <t>-3,61%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>44,99%</t>
+          <t>27,46%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>59,29%</t>
+          <t>-12,54%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-14,28%</t>
+          <t>-7,02%</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-50,0; 183,14</t>
+          <t>-10,32; 216,12</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-48,9; 201,9</t>
+          <t>-42,69; 145,8</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-73,99; 74,43</t>
+          <t>-59,87; 78,59</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-44,56; 427,19</t>
+          <t>-51,57; 84,45</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-25,18; 567,77</t>
+          <t>-67,8; 38,35</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-70,74; 252,61</t>
+          <t>-51,17; 85,88</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-26,52; 186,69</t>
+          <t>-18,26; 96,35</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-13,9; 197,55</t>
+          <t>-47,08; 43,82</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-56,88; 88,82</t>
+          <t>-42,71; 44,37</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-0,16</t>
+          <t>7,64</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-2,58</t>
+          <t>3,49</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-0,7</t>
+          <t>-1,68</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>4,65</t>
+          <t>7,36</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,95</t>
+          <t>1,31</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-1,19</t>
+          <t>4,37</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>2,05</t>
+          <t>7,48</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-0,93</t>
+          <t>2,3</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-0,86</t>
+          <t>1,32</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-5,07; 4,95</t>
+          <t>1,25; 14,7</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-7,33; 1,9</t>
+          <t>-2,12; 9,37</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-5,81; 4,2</t>
+          <t>-7,09; 2,66</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,89; 10,89</t>
+          <t>1,47; 14,35</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-3,83; 6,1</t>
+          <t>-4,03; 6,83</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-5,86; 2,9</t>
+          <t>-1,34; 9,49</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-1,91; 5,66</t>
+          <t>2,75; 12,05</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-4,39; 2,36</t>
+          <t>-2,03; 5,76</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-4,42; 2,39</t>
+          <t>-2,68; 4,88</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-2,02%</t>
+          <t>108,14%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-31,89%</t>
+          <t>49,39%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-8,65%</t>
+          <t>-23,78%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>69,1%</t>
+          <t>125,02%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>14,12%</t>
+          <t>22,22%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-17,66%</t>
+          <t>74,12%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>27,46%</t>
+          <t>115,67%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-12,54%</t>
+          <t>35,64%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-11,53%</t>
+          <t>20,39%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-49,05; 94,58</t>
+          <t>6,61; 329,19</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-66,88; 37,09</t>
+          <t>-24,62; 203,92</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-50,6; 77,0</t>
+          <t>-68,26; 68,85</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-11,97; 248,5</t>
+          <t>9,61; 433,46</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-43,27; 152,46</t>
+          <t>-49,19; 197,56</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-61,67; 70,05</t>
+          <t>-21,04; 304,73</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-23,53; 96,38</t>
+          <t>27,14; 252,93</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-46,52; 41,48</t>
+          <t>-23,63; 123,17</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-44,87; 43,67</t>
+          <t>-30,36; 109,9</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>7,36</t>
+          <t>-0,51</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>1,31</t>
+          <t>-0,56</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>4,13</t>
+          <t>0,52</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>7,64</t>
+          <t>-2,18</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>3,49</t>
+          <t>-4,5</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-1,06</t>
+          <t>-1,13</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>7,48</t>
+          <t>-1,28</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>2,3</t>
+          <t>-2,48</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>1,57</t>
+          <t>-0,23</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>1,18; 13,82</t>
+          <t>-4,95; 4,71</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-3,73; 6,46</t>
+          <t>-5,65; 4,15</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,22; 8,98</t>
+          <t>-4,23; 5,37</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,84; 14,13</t>
+          <t>-8,2; 3,19</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-2,11; 9,97</t>
+          <t>-9,81; 0,32</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-6,22; 3,87</t>
+          <t>-6,97; 4,02</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>2,73; 12,16</t>
+          <t>-4,97; 2,12</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-1,19; 6,16</t>
+          <t>-6,26; 1,04</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-1,88; 5,45</t>
+          <t>-4,08; 3,36</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>125,02%</t>
+          <t>-7,0%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>22,22%</t>
+          <t>-7,61%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>70,08%</t>
+          <t>7,08%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>108,14%</t>
+          <t>-20,64%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>49,39%</t>
+          <t>-42,66%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-15,01%</t>
+          <t>-10,72%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>115,67%</t>
+          <t>-14,39%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>35,64%</t>
+          <t>-27,86%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>24,27%</t>
+          <t>-2,61%</t>
         </is>
       </c>
     </row>
@@ -1439,54 +1439,54 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>3,58; 383,38</t>
+          <t>-52,94; 106,4</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-47,77; 182,22</t>
+          <t>-55,44; 94,94</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-18,6; 280,68</t>
+          <t>-43,37; 121,31</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>3,37; 312,93</t>
+          <t>-60,37; 42,87</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-25,58; 210,97</t>
+          <t>-73,66; 4,03</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-60,26; 97,47</t>
+          <t>-51,53; 52,59</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>29,27; 250,01</t>
+          <t>-45,65; 31,97</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-15,55; 132,0</t>
+          <t>-56,8; 15,95</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-21,46; 123,3</t>
+          <t>-37,53; 48,31</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-2,18</t>
+          <t>3,6</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>-4,5</t>
+          <t>1,96</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-1,41</t>
+          <t>-0,59</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>-0,51</t>
+          <t>1,19</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>-0,56</t>
+          <t>-1,36</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,5</t>
+          <t>0,19</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>-1,28</t>
+          <t>2,35</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>-2,48</t>
+          <t>0,24</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>-0,41</t>
+          <t>-0,14</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-7,76; 3,48</t>
+          <t>0,45; 6,41</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-10,04; 0,72</t>
+          <t>-0,95; 4,66</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-6,96; 3,94</t>
+          <t>-2,96; 1,77</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-5,05; 4,14</t>
+          <t>-1,78; 4,07</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-5,19; 4,45</t>
+          <t>-3,93; 1,15</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-4,24; 5,49</t>
+          <t>-2,45; 3,01</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-4,77; 2,03</t>
+          <t>0,3; 4,26</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-5,88; 0,91</t>
+          <t>-1,49; 2,02</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-3,85; 2,9</t>
+          <t>-1,83; 1,73</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>-20,64%</t>
+          <t>54,91%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>-42,66%</t>
+          <t>29,88%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-13,35%</t>
+          <t>-8,99%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>-7,0%</t>
+          <t>14,94%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>-7,61%</t>
+          <t>-17,02%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>6,78%</t>
+          <t>2,4%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>-14,39%</t>
+          <t>32,24%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>-27,86%</t>
+          <t>3,35%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>-4,57%</t>
+          <t>-1,92%</t>
         </is>
       </c>
     </row>
@@ -1655,275 +1655,59 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-57,73; 51,66</t>
+          <t>3,02; 118,21</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-72,28; 11,88</t>
+          <t>-12,62; 85,52</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-54,39; 57,4</t>
+          <t>-37,86; 33,79</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-55,94; 83,48</t>
+          <t>-20,85; 58,71</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-53,54; 91,73</t>
+          <t>-41,85; 18,43</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-43,92; 115,25</t>
+          <t>-26,96; 44,99</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-45,59; 30,83</t>
+          <t>4,12; 67,99</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-55,3; 14,45</t>
+          <t>-18,8; 33,18</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-36,41; 40,26</t>
+          <t>-22,31; 26,33</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>1,19</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>-1,36</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>-0,02</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>3,6</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>1,96</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>-0,5</t>
-        </is>
-      </c>
-      <c r="I24" s="2" t="inlineStr">
-        <is>
-          <t>2,35</t>
-        </is>
-      </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>0,24</t>
-        </is>
-      </c>
-      <c r="K24" s="2" t="inlineStr">
-        <is>
-          <t>-0,23</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n"/>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>-1,47; 3,88</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>-3,97; 1,3</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>-2,57; 2,7</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>0,55; 6,48</t>
-        </is>
-      </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>-0,96; 4,67</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>-3,12; 1,61</t>
-        </is>
-      </c>
-      <c r="I25" s="2" t="inlineStr">
-        <is>
-          <t>0,43; 4,64</t>
-        </is>
-      </c>
-      <c r="J25" s="2" t="inlineStr">
-        <is>
-          <t>-1,66; 2,16</t>
-        </is>
-      </c>
-      <c r="K25" s="2" t="inlineStr">
-        <is>
-          <t>-1,85; 1,79</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n"/>
-      <c r="B26" s="3" t="inlineStr">
-        <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>14,94%</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>-17,02%</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>-0,26%</t>
-        </is>
-      </c>
-      <c r="F26" s="2" t="inlineStr">
-        <is>
-          <t>54,91%</t>
-        </is>
-      </c>
-      <c r="G26" s="2" t="inlineStr">
-        <is>
-          <t>29,88%</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="inlineStr">
-        <is>
-          <t>-7,69%</t>
-        </is>
-      </c>
-      <c r="I26" s="2" t="inlineStr">
-        <is>
-          <t>32,24%</t>
-        </is>
-      </c>
-      <c r="J26" s="2" t="inlineStr">
-        <is>
-          <t>3,35%</t>
-        </is>
-      </c>
-      <c r="K26" s="2" t="inlineStr">
-        <is>
-          <t>-3,12%</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n"/>
-      <c r="B27" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C27" s="2" t="inlineStr">
-        <is>
-          <t>-16,62; 57,05</t>
-        </is>
-      </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>-41,95; 19,16</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>-27,6; 40,9</t>
-        </is>
-      </c>
-      <c r="F27" s="2" t="inlineStr">
-        <is>
-          <t>6,4; 122,31</t>
-        </is>
-      </c>
-      <c r="G27" s="2" t="inlineStr">
-        <is>
-          <t>-14,2; 84,25</t>
-        </is>
-      </c>
-      <c r="H27" s="2" t="inlineStr">
-        <is>
-          <t>-38,93; 30,51</t>
-        </is>
-      </c>
-      <c r="I27" s="2" t="inlineStr">
-        <is>
-          <t>4,36; 73,89</t>
-        </is>
-      </c>
-      <c r="J27" s="2" t="inlineStr">
-        <is>
-          <t>-20,09; 33,63</t>
-        </is>
-      </c>
-      <c r="K27" s="2" t="inlineStr">
-        <is>
-          <t>-22,81; 28,22</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A24" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
@@ -1932,7 +1716,6 @@
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
